--- a/biology/Botanique/Malvales/Malvales.xlsx
+++ b/biology/Botanique/Malvales/Malvales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,16 +490,18 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Les Malvales sont un ordre de plantes dicotylédones.
-En classification classique de Cronquist (1981)[1], il comprend 5 familles :
+En classification classique de Cronquist (1981), il comprend 5 familles :
 Bombacacées (famille du baobab africain)
 Éléocarpacées
 Malvacées (famille de la mauve)
 Sterculiacées (famille du cacaoyer)
 Tiliacées (famille du tilleul)
-La classification phylogénétique APG (1998)[2] a modifié la composition  :
+La classification phylogénétique APG (1998) a modifié la composition  :
 ordre Malvales
 famille Bixaceae
 [+ famille Diegodendraceae ]
@@ -503,7 +515,7 @@
 famille Sphaerosepalaceae
 famille Thymelaeaceae (famille du bois joli)
 N.B. "[+ ...]" = famille optionnelle. 
-La classification phylogénétique APG II (2003)[3] a modifié la composition de cet ordre un petit peu :
+La classification phylogénétique APG II (2003) a modifié la composition de cet ordre un petit peu :
 ordre Malvales
 famille Bixaceae
 [+ famille Diegodendraceae ]
@@ -517,7 +529,7 @@
 famille Sphaerosepalaceae
 famille Thymelaeaceae
 N.B. "[+ ...]" = famille optionnelle. En effet, l'Angiosperm Phylogeny Website n'accepte pas les Diegodendraceae et les Cochlospermaceae et les inclut dans la famille des Bixaceae.
-En classification phylogénétique APG III (2009)[4], il comprend les familles :
+En classification phylogénétique APG III (2009), il comprend les familles :
 ordre Malvales Juss. ex Bercht. &amp; J.Presl (1820)
 famille Bixaceae Kunth (1822) (incluant Cochlospermaceae Planch., Diegodendraceae Capuron)
 famille Cistaceae Juss. (1789)
